--- a/experiment result/512_0.2_40_zs40_kappa_lp.xlsx
+++ b/experiment result/512_0.2_40_zs40_kappa_lp.xlsx
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.01219144016064877</v>
+        <v>0.01219378804836741</v>
       </c>
     </row>
     <row r="19">
